--- a/燃料油/eta/1.燃料油_数据上传.xlsx
+++ b/燃料油/eta/1.燃料油_数据上传.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23520" windowHeight="10740" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="列表页" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="详情页" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="列表页" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="详情页" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -2521,7 +2521,6 @@
         </is>
       </c>
     </row>
-    <row r="30"/>
     <row r="31">
       <c r="B31" s="11" t="n"/>
       <c r="C31" s="11" t="n"/>

--- a/燃料油/eta/1.燃料油_数据上传.xlsx
+++ b/燃料油/eta/1.燃料油_数据上传.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23520" windowHeight="10740" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="列表页" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="详情页" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="列表页" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="详情页" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1138,7 +1138,7 @@
         <v>45740</v>
       </c>
       <c r="F3" s="10" t="n">
-        <v>-6.2818</v>
+        <v>-7.401</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.09940152371156394</v>
+        <v>0.09758537421407867</v>
       </c>
     </row>
     <row r="4">
@@ -1177,7 +1177,7 @@
         <v>45740</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>64.76600000000001</v>
+        <v>94.584</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.05283279057249457</v>
+        <v>0.05429562292682898</v>
       </c>
     </row>
     <row r="5">
@@ -1216,7 +1216,7 @@
         <v>45744</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>6.4136</v>
+        <v>7.4195</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.07156838348001802</v>
+        <v>0.07484372586138603</v>
       </c>
     </row>
     <row r="6">
@@ -1420,7 +1420,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-6.2818</v>
+        <v>-7.401</v>
       </c>
       <c r="E3" s="1" t="n"/>
       <c r="F3" t="inlineStr">
@@ -1429,7 +1429,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>64.76600000000001</v>
+        <v>94.584</v>
       </c>
       <c r="J3" s="1" t="n"/>
       <c r="K3" t="inlineStr">
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>6.4136</v>
+        <v>7.4195</v>
       </c>
       <c r="O3" s="1" t="n"/>
       <c r="Q3" s="10" t="n"/>
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-4.0406</v>
+        <v>-4.0874</v>
       </c>
       <c r="C4" t="n">
         <v>-5.1273</v>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.2689452061575012</v>
+        <v>0.2544160101776191</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>67.41800000000001</v>
+        <v>66.67400000000001</v>
       </c>
       <c r="H4" t="n">
         <v>70.70399999999999</v>
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04874069239668911</v>
+        <v>0.06044335123136435</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6.5764</v>
+        <v>6.4124</v>
       </c>
       <c r="M4" t="n">
         <v>6.7377</v>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0.02452709689191665</v>
+        <v>0.05072983594286076</v>
       </c>
       <c r="Q4" s="10" t="n"/>
       <c r="R4" s="10" t="n"/>
@@ -2521,6 +2521,7 @@
         </is>
       </c>
     </row>
+    <row r="30"/>
     <row r="31">
       <c r="B31" s="11" t="n"/>
       <c r="C31" s="11" t="n"/>
@@ -2623,7749 +2624,7749 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-6.044627666473389</v>
+        <v>-7.96262788772583</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>62.04516983032227</v>
+        <v>100.7798385620117</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>6.917186737060547</v>
+        <v>8.085349082946777</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-6.161979198455811</v>
+        <v>-7.960106372833252</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>61.23511505126953</v>
+        <v>99.17917633056641</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>7.01512622833252</v>
+        <v>8.17755126953125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/23</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-5.995924949645996</v>
+        <v>-7.934719562530518</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>61.55513000488281</v>
+        <v>99.52445983886719</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>6.772794723510742</v>
+        <v>8.167933464050293</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025/11/18</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-6.428881645202637</v>
+        <v>-7.879276275634766</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025/11/18</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>61.62126159667969</v>
+        <v>98.42717742919922</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025/11/18</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5.83331298828125</v>
+        <v>8.124905586242676</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025/11/17</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-6.413009643554688</v>
+        <v>-7.870737552642822</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025/11/17</t>
+          <t>2025/11/19</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>61.41325759887695</v>
+        <v>98.46730804443359</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025/11/17</t>
+          <t>2025/11/19</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>6.838349342346191</v>
+        <v>7.685157299041748</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/16</t>
+          <t>2025/11/19</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-6.403895378112793</v>
+        <v>-7.796645164489746</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/18</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>61.42226409912109</v>
+        <v>96.33063507080078</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/18</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>6.855216979980469</v>
+        <v>7.51873779296875</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/18</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-6.410397529602051</v>
+        <v>-7.383116722106934</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>66.00984954833984</v>
+        <v>95.80659484863281</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>6.604202270507812</v>
+        <v>7.88478946685791</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-6.659089088439941</v>
+        <v>-7.168581008911133</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>66.04688262939453</v>
+        <v>93.92838287353516</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>6.021092414855957</v>
+        <v>6.710969924926758</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/16</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-6.556789875030518</v>
+        <v>-7.247525215148926</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>62.02971267700195</v>
+        <v>95.699462890625</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>6.460728645324707</v>
+        <v>7.534416198730469</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-6.755974292755127</v>
+        <v>-7.352770805358887</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>62.64760971069336</v>
+        <v>98.48770141601562</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>6.753169059753418</v>
+        <v>7.368728160858154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-6.82800817489624</v>
+        <v>-7.405290603637695</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>59.0395622253418</v>
+        <v>92.50357818603516</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>6.843828201293945</v>
+        <v>6.947755813598633</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/09</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-6.509053707122803</v>
+        <v>-7.490411281585693</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>71.16440582275391</v>
+        <v>90.25487518310547</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>6.283635139465332</v>
+        <v>6.875130176544189</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>2025/11/11</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>-7.455314159393311</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>2025/11/07</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>-6.395672798156738</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2025/11/05</t>
-        </is>
-      </c>
       <c r="F15" t="n">
-        <v>75.13883972167969</v>
+        <v>94.28050994873047</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5.402693748474121</v>
+        <v>7.524901866912842</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>2025/11/10</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>-7.391298770904541</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>2025/11/06</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>-6.248878479003906</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2025/11/04</t>
-        </is>
-      </c>
       <c r="F16" t="n">
-        <v>70.78134155273438</v>
+        <v>95.00263214111328</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5.5653076171875</v>
+        <v>7.803719043731689</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>2025/11/09</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>-7.190340995788574</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>2025/11/05</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>-6.461081981658936</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2025/11/03</t>
-        </is>
-      </c>
       <c r="F17" t="n">
-        <v>69.33758544921875</v>
+        <v>92.26575469970703</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>6.037571907043457</v>
+        <v>7.415186882019043</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>2025/11/07</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>-7.362439155578613</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>2025/11/04</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>-5.692917823791504</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2025/10/31</t>
-        </is>
-      </c>
       <c r="F18" t="n">
-        <v>61.94050216674805</v>
+        <v>88.50493621826172</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>8.32370662689209</v>
+        <v>6.683581829071045</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>2025/11/06</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>-7.337462902069092</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>2025/11/03</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>-5.589387893676758</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2025/10/30</t>
-        </is>
-      </c>
       <c r="F19" t="n">
-        <v>55.08063507080078</v>
+        <v>78.49210357666016</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>8.21162223815918</v>
+        <v>5.621938705444336</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/02</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-5.517695903778076</v>
+        <v>-7.234783172607422</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>55.65372848510742</v>
+        <v>75.35062408447266</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5.50662899017334</v>
+        <v>5.465538024902344</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-4.749438762664795</v>
+        <v>-7.101106643676758</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>60.73735046386719</v>
+        <v>75.78472900390625</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>5.003048896789551</v>
+        <v>5.480258464813232</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-3.681090354919434</v>
+        <v>-6.509393692016602</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>54.27999877929688</v>
+        <v>73.04602813720703</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>4.678899765014648</v>
+        <v>6.04674243927002</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/11/02</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-4.124887466430664</v>
+        <v>-6.386685848236084</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/28</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>54.28</v>
+        <v>60.79</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/28</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.6789</v>
+        <v>5.1491</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-4.608974933624268</v>
+        <v>-6.319161415100098</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>57.73</v>
+        <v>59.17</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3.6572</v>
+        <v>4.7233</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-3.785960674285889</v>
+        <v>-5.997899532318115</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025/10/22</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>64.33</v>
+        <v>54.28</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025/10/22</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>5.3297</v>
+        <v>4.6789</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/10/26</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-3.869100093841553</v>
+        <v>-5.135270118713379</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025/10/21</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>62.46</v>
+        <v>57.73</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025/10/21</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>5.5871</v>
+        <v>3.6572</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/28</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-3.8691</v>
+        <v>-4.4242</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025/10/20</t>
+          <t>2025/10/22</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>58.12</v>
+        <v>64.33</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025/10/20</t>
+          <t>2025/10/22</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>5.2798</v>
+        <v>5.3297</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-5.4341</v>
+        <v>-4.5948</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025/10/17</t>
+          <t>2025/10/21</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>60.25</v>
+        <v>62.46</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025/10/17</t>
+          <t>2025/10/21</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>4.8533</v>
+        <v>5.5871</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025/10/22</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-4.801</v>
+        <v>-3.8691</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025/10/16</t>
+          <t>2025/10/20</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>64.15000000000001</v>
+        <v>58.12</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025/10/16</t>
+          <t>2025/10/20</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>7.3117</v>
+        <v>5.2798</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025/10/21</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-4.2491</v>
+        <v>-5.4341</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2025/10/15</t>
+          <t>2025/10/17</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>66.89</v>
+        <v>60.25</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025/10/15</t>
+          <t>2025/10/17</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>6.7735</v>
+        <v>4.8533</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025/10/20</t>
+          <t>2025/10/22</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-3.873</v>
+        <v>-4.801</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025/10/14</t>
+          <t>2025/10/16</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>71.93000000000001</v>
+        <v>64.15000000000001</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025/10/14</t>
+          <t>2025/10/16</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>6.3454</v>
+        <v>7.3117</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/10/17</t>
+          <t>2025/10/21</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-4.6349</v>
+        <v>-4.2491</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025/10/13</t>
+          <t>2025/10/15</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>68.59</v>
+        <v>66.89</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025/10/13</t>
+          <t>2025/10/15</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>6.4422</v>
+        <v>6.7735</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025/10/16</t>
+          <t>2025/10/20</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-2.7907</v>
+        <v>-3.873</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025/10/10</t>
+          <t>2025/10/14</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>70.88</v>
+        <v>71.93000000000001</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025/10/10</t>
+          <t>2025/10/14</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>8.5503</v>
+        <v>6.3454</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025/10/15</t>
+          <t>2025/10/17</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-3.7604</v>
+        <v>-4.6349</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025/10/09</t>
+          <t>2025/10/13</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>69.39</v>
+        <v>68.59</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025/10/09</t>
+          <t>2025/10/13</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>7.4005</v>
+        <v>6.4422</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025/10/14</t>
+          <t>2025/10/16</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-4.9821</v>
+        <v>-2.7907</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2025/10/08</t>
+          <t>2025/10/10</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>70.44</v>
+        <v>70.88</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025/10/08</t>
+          <t>2025/10/10</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>6.9878</v>
+        <v>8.5503</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025/10/13</t>
+          <t>2025/10/15</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-4.3594</v>
+        <v>-3.7604</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2025/10/07</t>
+          <t>2025/10/09</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>73.09</v>
+        <v>69.39</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025/10/07</t>
+          <t>2025/10/09</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>7.7028</v>
+        <v>7.4005</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025/10/10</t>
+          <t>2025/10/14</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-2.6119</v>
+        <v>-4.9821</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025/10/06</t>
+          <t>2025/10/08</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>73.76000000000001</v>
+        <v>70.44</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025/10/06</t>
+          <t>2025/10/08</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>7.0245</v>
+        <v>6.9878</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/10/09</t>
+          <t>2025/10/13</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-3.5271</v>
+        <v>-4.3594</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025/10/03</t>
+          <t>2025/10/07</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>74.63</v>
+        <v>73.09</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025/10/03</t>
+          <t>2025/10/07</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>7.4527</v>
+        <v>7.7028</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025/10/08</t>
+          <t>2025/10/10</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-4.1051</v>
+        <v>-2.6119</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2025/10/02</t>
+          <t>2025/10/06</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>74.67</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025/10/02</t>
+          <t>2025/10/06</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>8.837999999999999</v>
+        <v>7.0245</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025/10/07</t>
+          <t>2025/10/09</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-3.8075</v>
+        <v>-3.5271</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025/10/01</t>
+          <t>2025/10/03</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>77.93000000000001</v>
+        <v>74.63</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025/10/01</t>
+          <t>2025/10/03</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>8.1602</v>
+        <v>7.4527</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025/10/06</t>
+          <t>2025/10/08</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-4.5913</v>
+        <v>-4.1051</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025/09/30</t>
+          <t>2025/10/02</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>69.53</v>
+        <v>74.67</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025/09/30</t>
+          <t>2025/10/02</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>6.8398</v>
+        <v>8.837999999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025/10/03</t>
+          <t>2025/10/07</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-4.3001</v>
+        <v>-3.8075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2025/09/29</t>
+          <t>2025/10/01</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>67.48999999999999</v>
+        <v>77.93000000000001</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025/09/29</t>
+          <t>2025/10/01</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>7.1686</v>
+        <v>8.1602</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025/10/02</t>
+          <t>2025/10/06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-2.921</v>
+        <v>-4.5913</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2025/09/26</t>
+          <t>2025/09/30</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>66.94</v>
+        <v>69.53</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025/09/26</t>
+          <t>2025/09/30</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>5.3188</v>
+        <v>6.8398</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/10/01</t>
+          <t>2025/10/03</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-4.1122</v>
+        <v>-4.3001</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2025/09/25</t>
+          <t>2025/09/29</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>68.34999999999999</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025/09/25</t>
+          <t>2025/09/29</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>5.4887</v>
+        <v>7.1686</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025/09/30</t>
+          <t>2025/10/02</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-4.1098</v>
+        <v>-2.921</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2025/09/24</t>
+          <t>2025/09/26</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>63.41</v>
+        <v>66.94</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025/09/24</t>
+          <t>2025/09/26</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>4.479</v>
+        <v>5.3188</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025/09/29</t>
+          <t>2025/10/01</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-3.4598</v>
+        <v>-4.1122</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2025/09/23</t>
+          <t>2025/09/25</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>68.87</v>
+        <v>68.34999999999999</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025/09/23</t>
+          <t>2025/09/25</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>5.3007</v>
+        <v>5.4887</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025/09/26</t>
+          <t>2025/09/30</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-5.2229</v>
+        <v>-4.1098</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2025/09/22</t>
+          <t>2025/09/24</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>72.31</v>
+        <v>63.41</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025/09/22</t>
+          <t>2025/09/24</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>6.7103</v>
+        <v>4.479</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025/09/25</t>
+          <t>2025/09/29</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-5.2751</v>
+        <v>-3.4598</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2025/09/19</t>
+          <t>2025/09/23</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>75.09</v>
+        <v>68.87</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025/09/19</t>
+          <t>2025/09/23</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>6.5814</v>
+        <v>5.3007</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025/09/24</t>
+          <t>2025/09/26</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-5.5069</v>
+        <v>-5.2229</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2025/09/18</t>
+          <t>2025/09/22</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>76.22</v>
+        <v>72.31</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025/09/18</t>
+          <t>2025/09/22</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>6.9348</v>
+        <v>6.7103</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/09/23</t>
+          <t>2025/09/25</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-5.545</v>
+        <v>-5.2751</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2025/09/17</t>
+          <t>2025/09/19</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>78.20999999999999</v>
+        <v>75.09</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025/09/17</t>
+          <t>2025/09/19</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>6.9728</v>
+        <v>6.5814</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025/09/22</t>
+          <t>2025/09/24</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-4.6771</v>
+        <v>-5.5069</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2025/09/16</t>
+          <t>2025/09/18</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>77.69</v>
+        <v>76.22</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025/09/16</t>
+          <t>2025/09/18</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>5.4985</v>
+        <v>6.9348</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025/09/19</t>
+          <t>2025/09/23</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-5.2438</v>
+        <v>-5.545</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2025/09/15</t>
+          <t>2025/09/17</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>73.91</v>
+        <v>78.20999999999999</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025/09/15</t>
+          <t>2025/09/17</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>6.0356</v>
+        <v>6.9728</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025/09/18</t>
+          <t>2025/09/22</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-5.0683</v>
+        <v>-4.6771</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2025/09/12</t>
+          <t>2025/09/16</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>68.98999999999999</v>
+        <v>77.69</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025/09/12</t>
+          <t>2025/09/16</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>4.6116</v>
+        <v>5.4985</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025/09/17</t>
+          <t>2025/09/19</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-5.3437</v>
+        <v>-5.2438</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2025/09/11</t>
+          <t>2025/09/15</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>72.01000000000001</v>
+        <v>73.91</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025/09/11</t>
+          <t>2025/09/15</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>6.8505</v>
+        <v>6.0356</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025/09/16</t>
+          <t>2025/09/18</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-6.7361</v>
+        <v>-5.0683</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2025/09/10</t>
+          <t>2025/09/12</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>71.87</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025/09/10</t>
+          <t>2025/09/12</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>6.0549</v>
+        <v>4.6116</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/09/15</t>
+          <t>2025/09/17</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-5.6038</v>
+        <v>-5.3437</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2025/09/09</t>
+          <t>2025/09/11</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>76.58</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025/09/09</t>
+          <t>2025/09/11</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>7.8935</v>
+        <v>6.8505</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025/09/12</t>
+          <t>2025/09/16</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-6.253</v>
+        <v>-6.7361</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2025/09/08</t>
+          <t>2025/09/10</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>80.31999999999999</v>
+        <v>71.87</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025/09/08</t>
+          <t>2025/09/10</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>7.8036</v>
+        <v>6.0549</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025/09/11</t>
+          <t>2025/09/15</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-4.4897</v>
+        <v>-5.6038</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025/09/05</t>
+          <t>2025/09/09</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>82.54000000000001</v>
+        <v>76.58</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025/09/05</t>
+          <t>2025/09/09</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>8.725199999999999</v>
+        <v>7.8935</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025/09/10</t>
+          <t>2025/09/12</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-5.2632</v>
+        <v>-6.253</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025/09/04</t>
+          <t>2025/09/08</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>87.58</v>
+        <v>80.31999999999999</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025/09/04</t>
+          <t>2025/09/08</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>7.8431</v>
+        <v>7.8036</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025/09/09</t>
+          <t>2025/09/11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-4.1664</v>
+        <v>-4.4897</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025/09/03</t>
+          <t>2025/09/05</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>87.97</v>
+        <v>82.54000000000001</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025/09/03</t>
+          <t>2025/09/05</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>8.817299999999999</v>
+        <v>8.725199999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025/09/08</t>
+          <t>2025/09/10</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-4.8452</v>
+        <v>-5.2632</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025/09/02</t>
+          <t>2025/09/04</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>87.45</v>
+        <v>87.58</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025/09/02</t>
+          <t>2025/09/04</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>7.9734</v>
+        <v>7.8431</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/09/05</t>
+          <t>2025/09/09</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-4.2732</v>
+        <v>-4.1664</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025/09/01</t>
+          <t>2025/09/03</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>84.34999999999999</v>
+        <v>87.97</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025/09/01</t>
+          <t>2025/09/03</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>7.8138</v>
+        <v>8.817299999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025/09/04</t>
+          <t>2025/09/08</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-5.9491</v>
+        <v>-4.8452</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025/08/29</t>
+          <t>2025/09/02</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>84.61</v>
+        <v>87.45</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025/08/29</t>
+          <t>2025/09/02</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>8.379200000000001</v>
+        <v>7.9734</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025/09/03</t>
+          <t>2025/09/05</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-5.0362</v>
+        <v>-4.2732</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025/08/28</t>
+          <t>2025/09/01</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>91.81999999999999</v>
+        <v>84.34999999999999</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025/08/28</t>
+          <t>2025/09/01</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>8.1296</v>
+        <v>7.8138</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025/09/02</t>
+          <t>2025/09/04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-5.7983</v>
+        <v>-5.9491</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025/08/27</t>
+          <t>2025/08/29</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>88.40000000000001</v>
+        <v>84.61</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025/08/27</t>
+          <t>2025/08/29</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>7.9232</v>
+        <v>8.379200000000001</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025/09/01</t>
+          <t>2025/09/03</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-5.4697</v>
+        <v>-5.0362</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2025/08/26</t>
+          <t>2025/08/28</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>90.09</v>
+        <v>91.81999999999999</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025/08/26</t>
+          <t>2025/08/28</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>9.6288</v>
+        <v>8.1296</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025/08/29</t>
+          <t>2025/09/02</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-4.9452</v>
+        <v>-5.7983</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2025/08/25</t>
+          <t>2025/08/27</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>88.59999999999999</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025/08/25</t>
+          <t>2025/08/27</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>8.133900000000001</v>
+        <v>7.9232</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/08/28</t>
+          <t>2025/09/01</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-6.3302</v>
+        <v>-5.4697</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2025/08/22</t>
+          <t>2025/08/26</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>90.63</v>
+        <v>90.09</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025/08/22</t>
+          <t>2025/08/26</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>8.257400000000001</v>
+        <v>9.6288</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025/08/27</t>
+          <t>2025/08/29</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-5.998</v>
+        <v>-4.9452</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025/08/21</t>
+          <t>2025/08/25</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>90.64</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025/08/21</t>
+          <t>2025/08/25</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>7.9095</v>
+        <v>8.133900000000001</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025/08/26</t>
+          <t>2025/08/28</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-4.5586</v>
+        <v>-6.3302</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025/08/20</t>
+          <t>2025/08/22</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>86.65000000000001</v>
+        <v>90.63</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025/08/20</t>
+          <t>2025/08/22</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>8.0387</v>
+        <v>8.257400000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025/08/25</t>
+          <t>2025/08/27</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-5.8189</v>
+        <v>-5.998</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025/08/19</t>
+          <t>2025/08/21</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>88.34</v>
+        <v>90.64</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025/08/19</t>
+          <t>2025/08/21</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>8.9785</v>
+        <v>7.9095</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025/08/22</t>
+          <t>2025/08/26</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-6.015</v>
+        <v>-4.5586</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2025/08/18</t>
+          <t>2025/08/20</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>84.89</v>
+        <v>86.65000000000001</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025/08/18</t>
+          <t>2025/08/20</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>8.398400000000001</v>
+        <v>8.0387</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025/08/21</t>
+          <t>2025/08/25</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-6.3645</v>
+        <v>-5.8189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025/08/15</t>
+          <t>2025/08/19</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>85.84</v>
+        <v>88.34</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025/08/15</t>
+          <t>2025/08/19</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>9.234999999999999</v>
+        <v>8.9785</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/08/20</t>
+          <t>2025/08/22</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-5.6069</v>
+        <v>-6.015</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025/08/14</t>
+          <t>2025/08/18</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>84.69</v>
+        <v>84.89</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025/08/14</t>
+          <t>2025/08/18</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>8.2135</v>
+        <v>8.398400000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025/08/19</t>
+          <t>2025/08/21</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-4.9333</v>
+        <v>-6.3645</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025/08/13</t>
+          <t>2025/08/15</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>82.15000000000001</v>
+        <v>85.84</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025/08/13</t>
+          <t>2025/08/15</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>9.414099999999999</v>
+        <v>9.234999999999999</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025/08/18</t>
+          <t>2025/08/20</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-4.9701</v>
+        <v>-5.6069</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2025/08/12</t>
+          <t>2025/08/14</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>83.29000000000001</v>
+        <v>84.69</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025/08/12</t>
+          <t>2025/08/14</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>10.1808</v>
+        <v>8.2135</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025/08/15</t>
+          <t>2025/08/19</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-4.2831</v>
+        <v>-4.9333</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025/08/11</t>
+          <t>2025/08/13</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>83.95999999999999</v>
+        <v>82.15000000000001</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025/08/11</t>
+          <t>2025/08/13</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>9.2157</v>
+        <v>9.414099999999999</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025/08/14</t>
+          <t>2025/08/18</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-5.1235</v>
+        <v>-4.9701</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2025/08/08</t>
+          <t>2025/08/12</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>77.3</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025/08/08</t>
+          <t>2025/08/12</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>9.683999999999999</v>
+        <v>10.1808</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025/08/13</t>
+          <t>2025/08/15</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-3.5229</v>
+        <v>-4.2831</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2025/08/07</t>
+          <t>2025/08/11</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>78.67</v>
+        <v>83.95999999999999</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025/08/07</t>
+          <t>2025/08/11</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>10.496</v>
+        <v>9.2157</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025/08/12</t>
+          <t>2025/08/14</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-2.9357</v>
+        <v>-5.1235</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2025/08/06</t>
+          <t>2025/08/08</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>81.25</v>
+        <v>77.3</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025/08/06</t>
+          <t>2025/08/08</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>10.9761</v>
+        <v>9.683999999999999</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025/08/11</t>
+          <t>2025/08/13</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-4.0064</v>
+        <v>-3.5229</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2025/08/05</t>
+          <t>2025/08/07</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>83.16</v>
+        <v>78.67</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025/08/05</t>
+          <t>2025/08/07</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>10.4135</v>
+        <v>10.496</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025/08/08</t>
+          <t>2025/08/12</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-2.4892</v>
+        <v>-2.9357</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2025/08/04</t>
+          <t>2025/08/06</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>87.48</v>
+        <v>81.25</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025/08/04</t>
+          <t>2025/08/06</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>9.4321</v>
+        <v>10.9761</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025/08/07</t>
+          <t>2025/08/11</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-1.893</v>
+        <v>-4.0064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2025/08/01</t>
+          <t>2025/08/05</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>81.83</v>
+        <v>83.16</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025/08/01</t>
+          <t>2025/08/05</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>9.3772</v>
+        <v>10.4135</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025/08/06</t>
+          <t>2025/08/08</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-1.8191</v>
+        <v>-2.4892</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2025/07/31</t>
+          <t>2025/08/04</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>92.56</v>
+        <v>87.48</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025/07/31</t>
+          <t>2025/08/04</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>7.6842</v>
+        <v>9.4321</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025/08/05</t>
+          <t>2025/08/07</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-2.6825</v>
+        <v>-1.893</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2025/07/30</t>
+          <t>2025/08/01</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>92.44</v>
+        <v>81.83</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025/07/30</t>
+          <t>2025/08/01</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>7.2498</v>
+        <v>9.3772</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025/08/04</t>
+          <t>2025/08/06</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-4.3443</v>
+        <v>-1.8191</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2025/07/29</t>
+          <t>2025/07/31</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>90.67</v>
+        <v>92.56</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025/07/29</t>
+          <t>2025/07/31</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>6.4302</v>
+        <v>7.6842</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025/08/01</t>
+          <t>2025/08/05</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-3.5094</v>
+        <v>-2.6825</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2025/07/28</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>87.94</v>
+        <v>92.44</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025/07/28</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>7.5317</v>
+        <v>7.2498</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025/07/31</t>
+          <t>2025/08/04</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-6.8922</v>
+        <v>-4.3443</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2025/07/25</t>
+          <t>2025/07/29</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>84.43000000000001</v>
+        <v>90.67</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025/07/25</t>
+          <t>2025/07/29</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>9.5631</v>
+        <v>6.4302</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025/07/30</t>
+          <t>2025/08/01</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-7.3077</v>
+        <v>-3.5094</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2025/07/24</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>86.52</v>
+        <v>87.94</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025/07/24</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>8.475099999999999</v>
+        <v>7.5317</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025/07/29</t>
+          <t>2025/07/31</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-7.8486</v>
+        <v>-6.8922</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2025/07/23</t>
+          <t>2025/07/25</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>87.09</v>
+        <v>84.43000000000001</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025/07/23</t>
+          <t>2025/07/25</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>9.0002</v>
+        <v>9.5631</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025/07/28</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-6.3172</v>
+        <v>-7.3077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2025/07/22</t>
+          <t>2025/07/24</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>86</v>
+        <v>86.52</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2025/07/22</t>
+          <t>2025/07/24</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>9.2903</v>
+        <v>8.475099999999999</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025/07/25</t>
+          <t>2025/07/29</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-3.7329</v>
+        <v>-7.8486</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2025/07/21</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>82.48999999999999</v>
+        <v>87.09</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2025/07/21</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>8.530200000000001</v>
+        <v>9.0002</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025/07/24</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-5.1501</v>
+        <v>-6.3172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2025/07/18</t>
+          <t>2025/07/22</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>85.91</v>
+        <v>86</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2025/07/18</t>
+          <t>2025/07/22</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>9.035</v>
+        <v>9.2903</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025/07/23</t>
+          <t>2025/07/25</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-4.7147</v>
+        <v>-3.7329</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2025/07/17</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>88.06999999999999</v>
+        <v>82.48999999999999</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2025/07/17</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>8.0296</v>
+        <v>8.530200000000001</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025/07/22</t>
+          <t>2025/07/24</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-4.253</v>
+        <v>-5.1501</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2025/07/16</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>88.73999999999999</v>
+        <v>85.91</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2025/07/16</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>9.3398</v>
+        <v>9.035</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025/07/21</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-4.4604</v>
+        <v>-4.7147</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2025/07/15</t>
+          <t>2025/07/17</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>91.72</v>
+        <v>88.06999999999999</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2025/07/15</t>
+          <t>2025/07/17</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>9.4239</v>
+        <v>8.0296</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025/07/18</t>
+          <t>2025/07/22</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-4.4942</v>
+        <v>-4.253</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2025/07/14</t>
+          <t>2025/07/16</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>96.41</v>
+        <v>88.73999999999999</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2025/07/14</t>
+          <t>2025/07/16</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>10.7837</v>
+        <v>9.3398</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025/07/17</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-5.8397</v>
+        <v>-4.4604</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2025/07/11</t>
+          <t>2025/07/15</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>85.06999999999999</v>
+        <v>91.72</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2025/07/11</t>
+          <t>2025/07/15</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>7.9754</v>
+        <v>9.4239</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025/07/16</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-4.635</v>
+        <v>-4.4942</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2025/07/10</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>78.31</v>
+        <v>96.41</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2025/07/10</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>10.8261</v>
+        <v>10.7837</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025/07/15</t>
+          <t>2025/07/17</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-5.0202</v>
+        <v>-5.8397</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2025/07/09</t>
+          <t>2025/07/11</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>80.3</v>
+        <v>85.06999999999999</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2025/07/09</t>
+          <t>2025/07/11</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>9.6919</v>
+        <v>7.9754</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025/07/14</t>
+          <t>2025/07/16</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-4.399</v>
+        <v>-4.635</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2025/07/08</t>
+          <t>2025/07/10</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>81.16</v>
+        <v>78.31</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2025/07/08</t>
+          <t>2025/07/10</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>9.068899999999999</v>
+        <v>10.8261</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025/07/11</t>
+          <t>2025/07/15</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-5.4214</v>
+        <v>-5.0202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2025/07/07</t>
+          <t>2025/07/09</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>81.54000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2025/07/07</t>
+          <t>2025/07/09</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>8.5381</v>
+        <v>9.6919</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025/07/10</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-1.5061</v>
+        <v>-4.399</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2025/07/04</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>84.54000000000001</v>
+        <v>81.16</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2025/07/04</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>10.5583</v>
+        <v>9.068899999999999</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025/07/09</t>
+          <t>2025/07/11</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-2.9538</v>
+        <v>-5.4214</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2025/07/03</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>84.22</v>
+        <v>81.54000000000001</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2025/07/03</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>9.9984</v>
+        <v>8.5381</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025/07/08</t>
+          <t>2025/07/10</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-3.7122</v>
+        <v>-1.5061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2025/07/02</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>84.16</v>
+        <v>84.54000000000001</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2025/07/02</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>9.238</v>
+        <v>10.5583</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025/07/07</t>
+          <t>2025/07/09</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-4.3028</v>
+        <v>-2.9538</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2025/07/01</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>83.75</v>
+        <v>84.22</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2025/07/01</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>10.7388</v>
+        <v>9.9984</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025/07/04</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-2.7551</v>
+        <v>-3.7122</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>82.51000000000001</v>
+        <v>84.16</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>11.2042</v>
+        <v>9.238</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025/07/03</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-3.2646</v>
+        <v>-4.3028</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2025/06/27</t>
+          <t>2025/07/01</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>82.58</v>
+        <v>83.75</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2025/06/27</t>
+          <t>2025/07/01</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>10.7324</v>
+        <v>10.7388</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025/07/02</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-4.0155</v>
+        <v>-2.7551</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2025/06/26</t>
+          <t>2025/06/30</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>71.87</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2025/06/26</t>
+          <t>2025/06/30</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>10.2417</v>
+        <v>11.2042</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025/07/01</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-2.4502</v>
+        <v>-3.2646</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2025/06/25</t>
+          <t>2025/06/27</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>77.45999999999999</v>
+        <v>82.58</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2025/06/25</t>
+          <t>2025/06/27</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>10.7972</v>
+        <v>10.7324</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-1.7895</v>
+        <v>-4.0155</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2025/06/24</t>
+          <t>2025/06/26</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>73.26000000000001</v>
+        <v>71.87</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2025/06/24</t>
+          <t>2025/06/26</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>11.7828</v>
+        <v>10.2417</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025/06/27</t>
+          <t>2025/07/01</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-2.2724</v>
+        <v>-2.4502</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/06/25</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>69.56999999999999</v>
+        <v>77.45999999999999</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/06/25</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>13.6649</v>
+        <v>10.7972</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025/06/26</t>
+          <t>2025/06/30</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-1.0765</v>
+        <v>-1.7895</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2025/06/20</t>
+          <t>2025/06/24</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>66.04000000000001</v>
+        <v>73.26000000000001</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2025/06/20</t>
+          <t>2025/06/24</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>8.6798</v>
+        <v>11.7828</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025/06/25</t>
+          <t>2025/06/27</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-1.4013</v>
+        <v>-2.2724</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2025/06/19</t>
+          <t>2025/06/23</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>62.52</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2025/06/19</t>
+          <t>2025/06/23</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>6.6602</v>
+        <v>13.6649</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025/06/24</t>
+          <t>2025/06/26</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.2458</v>
+        <v>-1.0765</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2025/06/18</t>
+          <t>2025/06/20</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>60.05</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2025/06/18</t>
+          <t>2025/06/20</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>8.173999999999999</v>
+        <v>8.6798</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/06/25</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2.709</v>
+        <v>-1.4013</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/06/19</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>54.89</v>
+        <v>62.52</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/06/19</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>7.0287</v>
+        <v>6.6602</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025/06/20</t>
+          <t>2025/06/24</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-1.7202</v>
+        <v>0.2458</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/06/18</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>55.78</v>
+        <v>60.05</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/06/18</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>9.678699999999999</v>
+        <v>8.173999999999999</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025/06/19</t>
+          <t>2025/06/23</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-3.1854</v>
+        <v>2.709</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2025/06/13</t>
+          <t>2025/06/17</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>65.42</v>
+        <v>54.89</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2025/06/13</t>
+          <t>2025/06/17</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>8.4802</v>
+        <v>7.0287</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025/06/18</t>
+          <t>2025/06/20</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-1.2827</v>
+        <v>-1.7202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2025/06/12</t>
+          <t>2025/06/16</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>69.48999999999999</v>
+        <v>55.78</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2025/06/12</t>
+          <t>2025/06/16</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>9.2872</v>
+        <v>9.678699999999999</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/06/19</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-1.6154</v>
+        <v>-3.1854</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2025/06/11</t>
+          <t>2025/06/13</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>72.94</v>
+        <v>65.42</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2025/06/11</t>
+          <t>2025/06/13</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>7.1103</v>
+        <v>8.4802</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/06/18</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.8944</v>
+        <v>-1.2827</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/06/12</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>66.06999999999999</v>
+        <v>69.48999999999999</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/06/12</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>9.6875</v>
+        <v>9.2872</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025/06/13</t>
+          <t>2025/06/17</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-1.8221</v>
+        <v>-1.6154</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/06/11</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>67.37</v>
+        <v>72.94</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/06/11</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>8.604100000000001</v>
+        <v>7.1103</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025/06/12</t>
+          <t>2025/06/16</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-1.6561</v>
+        <v>0.8944</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/06/10</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>70.31999999999999</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/06/10</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>8.993</v>
+        <v>9.6875</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025/06/11</t>
+          <t>2025/06/13</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-4.3763</v>
+        <v>-1.8221</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2025/06/05</t>
+          <t>2025/06/09</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>66.37</v>
+        <v>67.37</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2025/06/05</t>
+          <t>2025/06/09</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>9.9986</v>
+        <v>8.604100000000001</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/06/12</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-0.7171999999999999</v>
+        <v>-1.6561</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2025/06/04</t>
+          <t>2025/06/06</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>71.09999999999999</v>
+        <v>70.31999999999999</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2025/06/04</t>
+          <t>2025/06/06</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>11.1573</v>
+        <v>8.993</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/06/11</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-2.0054</v>
+        <v>-4.3763</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2025/06/03</t>
+          <t>2025/06/05</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>71.01000000000001</v>
+        <v>66.37</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2025/06/03</t>
+          <t>2025/06/05</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>9.273899999999999</v>
+        <v>9.9986</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/06/10</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-2.081</v>
+        <v>-0.7171999999999999</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2025/06/02</t>
+          <t>2025/06/04</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>69.95999999999999</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2025/06/02</t>
+          <t>2025/06/04</t>
         </is>
       </c>
       <c r="H127" t="n">
-        <v>10.3621</v>
+        <v>11.1573</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025/06/05</t>
+          <t>2025/06/09</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-0.4534</v>
+        <v>-2.0054</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2025/05/30</t>
+          <t>2025/06/03</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>59.77</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2025/05/30</t>
+          <t>2025/06/03</t>
         </is>
       </c>
       <c r="H128" t="n">
-        <v>11.3252</v>
+        <v>9.273899999999999</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025/06/04</t>
+          <t>2025/06/06</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-0.0395</v>
+        <v>-2.081</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2025/05/29</t>
+          <t>2025/06/02</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>55.41</v>
+        <v>69.95999999999999</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2025/05/29</t>
+          <t>2025/06/02</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>12.5902</v>
+        <v>10.3621</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025/06/03</t>
+          <t>2025/06/05</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-1.9087</v>
+        <v>-0.4534</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2025/05/28</t>
+          <t>2025/05/30</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>55.68</v>
+        <v>59.77</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2025/05/28</t>
+          <t>2025/05/30</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>10.4512</v>
+        <v>11.3252</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025/06/02</t>
+          <t>2025/06/04</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.6552</v>
+        <v>-0.0395</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2025/05/27</t>
+          <t>2025/05/29</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>65.11</v>
+        <v>55.41</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2025/05/27</t>
+          <t>2025/05/29</t>
         </is>
       </c>
       <c r="H131" t="n">
-        <v>11.8108</v>
+        <v>12.5902</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025/05/30</t>
+          <t>2025/06/03</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1.9126</v>
+        <v>-1.9087</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2025/05/26</t>
+          <t>2025/05/28</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>59.09</v>
+        <v>55.68</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2025/05/26</t>
+          <t>2025/05/28</t>
         </is>
       </c>
       <c r="H132" t="n">
-        <v>11.4915</v>
+        <v>10.4512</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025/05/29</t>
+          <t>2025/06/02</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>3.8642</v>
+        <v>-0.6552</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2025/05/23</t>
+          <t>2025/05/27</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>52.96</v>
+        <v>65.11</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2025/05/23</t>
+          <t>2025/05/27</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>10.7318</v>
+        <v>11.8108</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025/05/28</t>
+          <t>2025/05/30</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1.6827</v>
+        <v>1.9126</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2025/05/22</t>
+          <t>2025/05/26</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>54.01</v>
+        <v>59.09</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2025/05/22</t>
+          <t>2025/05/26</t>
         </is>
       </c>
       <c r="H134" t="n">
-        <v>11.5443</v>
+        <v>11.4915</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025/05/27</t>
+          <t>2025/05/29</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1.5572</v>
+        <v>3.8642</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2025/05/21</t>
+          <t>2025/05/23</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>48.52</v>
+        <v>52.96</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2025/05/21</t>
+          <t>2025/05/23</t>
         </is>
       </c>
       <c r="H135" t="n">
-        <v>12.2522</v>
+        <v>10.7318</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025/05/26</t>
+          <t>2025/05/28</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2.186</v>
+        <v>1.6827</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2025/05/20</t>
+          <t>2025/05/22</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>53.8</v>
+        <v>54.01</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2025/05/20</t>
+          <t>2025/05/22</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>11.1129</v>
+        <v>11.5443</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025/05/23</t>
+          <t>2025/05/27</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>2.3917</v>
+        <v>1.5572</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2025/05/19</t>
+          <t>2025/05/21</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>58.43</v>
+        <v>48.52</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2025/05/19</t>
+          <t>2025/05/21</t>
         </is>
       </c>
       <c r="H137" t="n">
-        <v>11.186</v>
+        <v>12.2522</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025/05/22</t>
+          <t>2025/05/26</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>3.0387</v>
+        <v>2.186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2025/05/16</t>
+          <t>2025/05/20</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>58.29</v>
+        <v>53.8</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2025/05/16</t>
+          <t>2025/05/20</t>
         </is>
       </c>
       <c r="H138" t="n">
-        <v>11.1963</v>
+        <v>11.1129</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025/05/21</t>
+          <t>2025/05/23</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>4.6113</v>
+        <v>2.3917</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2025/05/15</t>
+          <t>2025/05/19</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>61.72</v>
+        <v>58.43</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2025/05/15</t>
+          <t>2025/05/19</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>12.0495</v>
+        <v>11.186</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025/05/20</t>
+          <t>2025/05/22</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2.6405</v>
+        <v>3.0387</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2025/05/14</t>
+          <t>2025/05/16</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>64.79000000000001</v>
+        <v>58.29</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2025/05/14</t>
+          <t>2025/05/16</t>
         </is>
       </c>
       <c r="H140" t="n">
-        <v>12.3446</v>
+        <v>11.1963</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025/05/19</t>
+          <t>2025/05/21</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1.9844</v>
+        <v>4.6113</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2025/05/13</t>
+          <t>2025/05/15</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>57.81</v>
+        <v>61.72</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2025/05/13</t>
+          <t>2025/05/15</t>
         </is>
       </c>
       <c r="H141" t="n">
-        <v>9.757400000000001</v>
+        <v>12.0495</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025/05/16</t>
+          <t>2025/05/20</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2.0168</v>
+        <v>2.6405</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2025/05/12</t>
+          <t>2025/05/14</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>58.09</v>
+        <v>64.79000000000001</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2025/05/12</t>
+          <t>2025/05/14</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>11.0825</v>
+        <v>12.3446</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025/05/15</t>
+          <t>2025/05/19</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2.3298</v>
+        <v>1.9844</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2025/05/09</t>
+          <t>2025/05/13</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>60.9</v>
+        <v>57.81</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2025/05/09</t>
+          <t>2025/05/13</t>
         </is>
       </c>
       <c r="H143" t="n">
-        <v>11.238</v>
+        <v>9.757400000000001</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025/05/14</t>
+          <t>2025/05/16</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2.1415</v>
+        <v>2.0168</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2025/05/08</t>
+          <t>2025/05/12</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>64.94</v>
+        <v>58.09</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2025/05/08</t>
+          <t>2025/05/12</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>10.7647</v>
+        <v>11.0825</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025/05/13</t>
+          <t>2025/05/15</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.6535</v>
+        <v>2.3298</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2025/05/07</t>
+          <t>2025/05/09</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>66.81</v>
+        <v>60.9</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2025/05/07</t>
+          <t>2025/05/09</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>13.0375</v>
+        <v>11.238</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025/05/12</t>
+          <t>2025/05/14</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1.9345</v>
+        <v>2.1415</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2025/05/06</t>
+          <t>2025/05/08</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>66.40000000000001</v>
+        <v>64.94</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2025/05/06</t>
+          <t>2025/05/08</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>10.5476</v>
+        <v>10.7647</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025/05/09</t>
+          <t>2025/05/13</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1.6475</v>
+        <v>0.6535</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2025/05/05</t>
+          <t>2025/05/07</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>61.14</v>
+        <v>66.81</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2025/05/05</t>
+          <t>2025/05/07</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>10.7669</v>
+        <v>13.0375</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025/05/08</t>
+          <t>2025/05/12</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.538</v>
+        <v>1.9345</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2025/05/02</t>
+          <t>2025/05/06</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>55.45</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2025/05/02</t>
+          <t>2025/05/06</t>
         </is>
       </c>
       <c r="H148" t="n">
-        <v>10.8234</v>
+        <v>10.5476</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025/05/07</t>
+          <t>2025/05/09</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2.5162</v>
+        <v>1.6475</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2025/05/01</t>
+          <t>2025/05/05</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>52.87</v>
+        <v>61.14</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2025/05/01</t>
+          <t>2025/05/05</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>8.873100000000001</v>
+        <v>10.7669</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025/05/06</t>
+          <t>2025/05/08</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.538</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2025/04/30</t>
+          <t>2025/05/02</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>54.15</v>
+        <v>55.45</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2025/04/30</t>
+          <t>2025/05/02</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>9.6973</v>
+        <v>10.8234</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025/05/05</t>
+          <t>2025/05/07</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1.1385</v>
+        <v>2.5162</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2025/04/29</t>
+          <t>2025/05/01</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>58.56</v>
+        <v>52.87</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2025/04/29</t>
+          <t>2025/05/01</t>
         </is>
       </c>
       <c r="H151" t="n">
-        <v>10.4445</v>
+        <v>8.873100000000001</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025/05/02</t>
+          <t>2025/05/06</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2.0911</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2025/04/28</t>
+          <t>2025/04/30</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>61.45</v>
+        <v>54.15</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2025/04/28</t>
+          <t>2025/04/30</t>
         </is>
       </c>
       <c r="H152" t="n">
-        <v>10.2329</v>
+        <v>9.6973</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025/05/01</t>
+          <t>2025/05/05</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.5472</v>
+        <v>1.1385</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2025/04/25</t>
+          <t>2025/04/29</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>56.35</v>
+        <v>58.56</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2025/04/25</t>
+          <t>2025/04/29</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>9.0481</v>
+        <v>10.4445</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025/04/30</t>
+          <t>2025/05/02</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1.1698</v>
+        <v>2.0911</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2025/04/24</t>
+          <t>2025/04/28</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>52.58</v>
+        <v>61.45</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2025/04/24</t>
+          <t>2025/04/28</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>8.1114</v>
+        <v>10.2329</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025/04/29</t>
+          <t>2025/05/01</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1.2224</v>
+        <v>0.5472</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2025/04/23</t>
+          <t>2025/04/25</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>49.3</v>
+        <v>56.35</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2025/04/23</t>
+          <t>2025/04/25</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>9.9682</v>
+        <v>9.0481</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025/04/28</t>
+          <t>2025/04/30</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.5557</v>
+        <v>1.1698</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2025/04/22</t>
+          <t>2025/04/24</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>53.44</v>
+        <v>52.58</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2025/04/22</t>
+          <t>2025/04/24</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>7.6435</v>
+        <v>8.1114</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025/04/25</t>
+          <t>2025/04/29</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.1741</v>
+        <v>1.2224</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2025/04/21</t>
+          <t>2025/04/23</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>53.06</v>
+        <v>49.3</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2025/04/21</t>
+          <t>2025/04/23</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>8.234500000000001</v>
+        <v>9.9682</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025/04/24</t>
+          <t>2025/04/28</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-0.1689</v>
+        <v>0.5557</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2025/04/18</t>
+          <t>2025/04/22</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>52.39</v>
+        <v>53.44</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2025/04/18</t>
+          <t>2025/04/22</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>7.7046</v>
+        <v>7.6435</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025/04/23</t>
+          <t>2025/04/25</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2.2044</v>
+        <v>0.1741</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2025/04/17</t>
+          <t>2025/04/21</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>50.62</v>
+        <v>53.06</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2025/04/17</t>
+          <t>2025/04/21</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>6.4353</v>
+        <v>8.234500000000001</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025/04/22</t>
+          <t>2025/04/24</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-0.7723</v>
+        <v>-0.1689</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2025/04/16</t>
+          <t>2025/04/18</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>49.29</v>
+        <v>52.39</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2025/04/16</t>
+          <t>2025/04/18</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>6.972</v>
+        <v>7.7046</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025/04/21</t>
+          <t>2025/04/23</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-0.1214</v>
+        <v>2.2044</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2025/04/15</t>
+          <t>2025/04/17</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>49.68</v>
+        <v>50.62</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2025/04/15</t>
+          <t>2025/04/17</t>
         </is>
       </c>
       <c r="H161" t="n">
-        <v>8.9709</v>
+        <v>6.4353</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025/04/18</t>
+          <t>2025/04/22</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-0.5458</v>
+        <v>-0.7723</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2025/04/14</t>
+          <t>2025/04/16</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>55.51</v>
+        <v>49.29</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2025/04/14</t>
+          <t>2025/04/16</t>
         </is>
       </c>
       <c r="H162" t="n">
-        <v>8.8696</v>
+        <v>6.972</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025/04/17</t>
+          <t>2025/04/21</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-1.5364</v>
+        <v>-0.1214</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2025/04/11</t>
+          <t>2025/04/15</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>58.52</v>
+        <v>49.68</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2025/04/11</t>
+          <t>2025/04/15</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>7.8605</v>
+        <v>8.9709</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025/04/16</t>
+          <t>2025/04/18</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-0.7902</v>
+        <v>-0.5458</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2025/04/10</t>
+          <t>2025/04/14</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>62.62</v>
+        <v>55.51</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2025/04/10</t>
+          <t>2025/04/14</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>9.1409</v>
+        <v>8.8696</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025/04/15</t>
+          <t>2025/04/17</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1.1473</v>
+        <v>-1.5364</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2025/04/09</t>
+          <t>2025/04/11</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>64.98</v>
+        <v>58.52</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2025/04/09</t>
+          <t>2025/04/11</t>
         </is>
       </c>
       <c r="H165" t="n">
-        <v>4.4901</v>
+        <v>7.8605</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025/04/14</t>
+          <t>2025/04/16</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.1279</v>
+        <v>-0.7902</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2025/04/08</t>
+          <t>2025/04/10</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>61.42</v>
+        <v>62.62</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2025/04/08</t>
+          <t>2025/04/10</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>9.8414</v>
+        <v>9.1409</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025/04/11</t>
+          <t>2025/04/15</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-1.3553</v>
+        <v>1.1473</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2025/04/07</t>
+          <t>2025/04/09</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>62.07</v>
+        <v>64.98</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2025/04/07</t>
+          <t>2025/04/09</t>
         </is>
       </c>
       <c r="H167" t="n">
-        <v>7.8026</v>
+        <v>4.4901</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025/04/10</t>
+          <t>2025/04/14</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-0.7206</v>
+        <v>0.1279</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2025/04/04</t>
+          <t>2025/04/08</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>64.51000000000001</v>
+        <v>61.42</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2025/04/04</t>
+          <t>2025/04/08</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>10.2515</v>
+        <v>9.8414</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025/04/09</t>
+          <t>2025/04/11</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-5.743</v>
+        <v>-1.3553</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2025/04/03</t>
+          <t>2025/04/07</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>61.08</v>
+        <v>62.07</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2025/04/03</t>
+          <t>2025/04/07</t>
         </is>
       </c>
       <c r="H169" t="n">
-        <v>9.9718</v>
+        <v>7.8026</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025/04/08</t>
+          <t>2025/04/10</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.169</v>
+        <v>-0.7206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2025/04/02</t>
+          <t>2025/04/04</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>70.59</v>
+        <v>64.51000000000001</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2025/04/02</t>
+          <t>2025/04/04</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>7.3382</v>
+        <v>10.2515</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025/04/07</t>
+          <t>2025/04/09</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-1.9722</v>
+        <v>-5.743</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2025/04/01</t>
+          <t>2025/04/03</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>69.63</v>
+        <v>61.08</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2025/04/01</t>
+          <t>2025/04/03</t>
         </is>
       </c>
       <c r="H171" t="n">
-        <v>7.2533</v>
+        <v>9.9718</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025/04/04</t>
+          <t>2025/04/08</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.0924</v>
+        <v>0.169</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2025/03/31</t>
+          <t>2025/04/02</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>66.84</v>
+        <v>70.59</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2025/03/31</t>
+          <t>2025/04/02</t>
         </is>
       </c>
       <c r="H172" t="n">
-        <v>6.0773</v>
+        <v>7.3382</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025/04/03</t>
+          <t>2025/04/07</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.3529</v>
+        <v>-1.9722</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2025/03/28</t>
+          <t>2025/04/01</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>68.69</v>
+        <v>69.63</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2025/03/28</t>
+          <t>2025/04/01</t>
         </is>
       </c>
       <c r="H173" t="n">
-        <v>6.9794</v>
+        <v>7.2533</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025/04/02</t>
+          <t>2025/04/04</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-3.7783</v>
+        <v>0.0924</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2025/03/27</t>
+          <t>2025/03/31</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>65.65000000000001</v>
+        <v>66.84</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2025/03/27</t>
+          <t>2025/03/31</t>
         </is>
       </c>
       <c r="H174" t="n">
-        <v>6.2629</v>
+        <v>6.0773</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025/04/01</t>
+          <t>2025/04/03</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-3.712</v>
+        <v>0.3529</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2025/03/26</t>
+          <t>2025/03/28</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>61.01</v>
+        <v>68.69</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2025/03/26</t>
+          <t>2025/03/28</t>
         </is>
       </c>
       <c r="H175" t="n">
-        <v>6.0415</v>
+        <v>6.9794</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025/03/31</t>
+          <t>2025/04/02</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-4.4487</v>
+        <v>-3.7783</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2025/03/25</t>
+          <t>2025/03/27</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>62.25</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2025/03/25</t>
+          <t>2025/03/27</t>
         </is>
       </c>
       <c r="H176" t="n">
-        <v>6.769</v>
+        <v>6.2629</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025/03/28</t>
+          <t>2025/04/01</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-3.8379</v>
+        <v>-3.712</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2025/03/24</t>
+          <t>2025/03/26</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>63.55</v>
+        <v>61.01</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2025/03/24</t>
+          <t>2025/03/26</t>
         </is>
       </c>
       <c r="H177" t="n">
-        <v>6.2409</v>
+        <v>6.0415</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025/03/27</t>
+          <t>2025/03/31</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-4.0757</v>
+        <v>-4.4487</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2025/03/21</t>
+          <t>2025/03/25</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>63.75</v>
+        <v>62.25</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2025/03/21</t>
+          <t>2025/03/25</t>
         </is>
       </c>
       <c r="H178" t="n">
-        <v>6.9187</v>
+        <v>6.769</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025/03/26</t>
+          <t>2025/03/28</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-3.5664</v>
+        <v>-3.8379</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2025/03/20</t>
+          <t>2025/03/24</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>62.78</v>
+        <v>63.55</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2025/03/20</t>
+          <t>2025/03/24</t>
         </is>
       </c>
       <c r="H179" t="n">
-        <v>6.2189</v>
+        <v>6.2409</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025/03/25</t>
+          <t>2025/03/27</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-3.0342</v>
+        <v>-4.0757</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2025/03/19</t>
+          <t>2025/03/21</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>64.75</v>
+        <v>63.75</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2025/03/19</t>
+          <t>2025/03/21</t>
         </is>
       </c>
       <c r="H180" t="n">
-        <v>6.7239</v>
+        <v>6.9187</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025/03/24</t>
+          <t>2025/03/26</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-3.7669</v>
+        <v>-3.5664</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2025/03/18</t>
+          <t>2025/03/20</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>63.5</v>
+        <v>62.78</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2025/03/18</t>
+          <t>2025/03/20</t>
         </is>
       </c>
       <c r="H181" t="n">
-        <v>8.227399999999999</v>
+        <v>6.2189</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025/03/21</t>
+          <t>2025/03/25</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-3.1206</v>
+        <v>-3.0342</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2025/03/17</t>
+          <t>2025/03/19</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>60.61</v>
+        <v>64.75</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2025/03/17</t>
+          <t>2025/03/19</t>
         </is>
       </c>
       <c r="H182" t="n">
-        <v>6.8103</v>
+        <v>6.7239</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025/03/20</t>
+          <t>2025/03/24</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-3.6677</v>
+        <v>-3.7669</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2025/03/14</t>
+          <t>2025/03/18</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>67.53</v>
+        <v>63.5</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2025/03/14</t>
+          <t>2025/03/18</t>
         </is>
       </c>
       <c r="H183" t="n">
-        <v>7.2389</v>
+        <v>8.227399999999999</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025/03/19</t>
+          <t>2025/03/21</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-3.4729</v>
+        <v>-3.1206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2025/03/13</t>
+          <t>2025/03/17</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>72.56999999999999</v>
+        <v>60.61</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2025/03/13</t>
+          <t>2025/03/17</t>
         </is>
       </c>
       <c r="H184" t="n">
-        <v>9.0413</v>
+        <v>6.8103</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025/03/18</t>
+          <t>2025/03/20</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-1.7726</v>
+        <v>-3.6677</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2025/03/12</t>
+          <t>2025/03/14</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>69.81999999999999</v>
+        <v>67.53</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2025/03/12</t>
+          <t>2025/03/14</t>
         </is>
       </c>
       <c r="H185" t="n">
-        <v>6.5114</v>
+        <v>7.2389</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025/03/17</t>
+          <t>2025/03/19</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-2.7346</v>
+        <v>-3.4729</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2025/03/11</t>
+          <t>2025/03/13</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>65.15000000000001</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2025/03/11</t>
+          <t>2025/03/13</t>
         </is>
       </c>
       <c r="H186" t="n">
-        <v>7.4983</v>
+        <v>9.0413</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025/03/14</t>
+          <t>2025/03/18</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-3.3957</v>
+        <v>-1.7726</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2025/03/10</t>
+          <t>2025/03/12</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>60.61</v>
+        <v>69.81999999999999</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2025/03/10</t>
+          <t>2025/03/12</t>
         </is>
       </c>
       <c r="H187" t="n">
-        <v>8.1027</v>
+        <v>6.5114</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025/03/13</t>
+          <t>2025/03/17</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-2.3871</v>
+        <v>-2.7346</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/11</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>60.92</v>
+        <v>65.15000000000001</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/11</t>
         </is>
       </c>
       <c r="H188" t="n">
-        <v>6.3109</v>
+        <v>7.4983</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025/03/12</t>
+          <t>2025/03/14</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-4.4839</v>
+        <v>-3.3957</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>68.48999999999999</v>
+        <v>60.61</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="H189" t="n">
-        <v>7.7463</v>
+        <v>8.1027</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025/03/11</t>
+          <t>2025/03/13</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-2.7616</v>
+        <v>-2.3871</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>79.45</v>
+        <v>60.92</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="H190" t="n">
-        <v>8.657500000000001</v>
+        <v>6.3109</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025/03/10</t>
+          <t>2025/03/12</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-1.4422</v>
+        <v>-4.4839</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>78.29000000000001</v>
+        <v>68.48999999999999</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="H191" t="n">
-        <v>7.2435</v>
+        <v>7.7463</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/11</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-3.2828</v>
+        <v>-2.7616</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>71.04000000000001</v>
+        <v>79.45</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="H192" t="n">
-        <v>9.2729</v>
+        <v>8.657500000000001</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-3.0395</v>
+        <v>-1.4422</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2025/02/28</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>51.95</v>
+        <v>78.29000000000001</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2025/02/28</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="H193" t="n">
-        <v>8.157</v>
+        <v>7.2435</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-3.8543</v>
+        <v>-3.2828</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2025/02/27</t>
+          <t>2025/03/03</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>55.29</v>
+        <v>71.04000000000001</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2025/02/27</t>
+          <t>2025/03/03</t>
         </is>
       </c>
       <c r="H194" t="n">
-        <v>8.286</v>
+        <v>9.2729</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-5.0857</v>
+        <v>-3.0395</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2025/02/26</t>
+          <t>2025/02/28</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>61.08</v>
+        <v>51.95</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2025/02/26</t>
+          <t>2025/02/28</t>
         </is>
       </c>
       <c r="H195" t="n">
-        <v>9.558199999999999</v>
+        <v>8.157</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-1.9145</v>
+        <v>-3.8543</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2025/02/25</t>
+          <t>2025/02/27</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>64.65000000000001</v>
+        <v>55.29</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2025/02/25</t>
+          <t>2025/02/27</t>
         </is>
       </c>
       <c r="H196" t="n">
-        <v>11.4398</v>
+        <v>8.286</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025/02/28</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-0.0241</v>
+        <v>-5.0857</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2025/02/24</t>
+          <t>2025/02/26</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>66.03</v>
+        <v>61.08</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>2025/02/24</t>
+          <t>2025/02/26</t>
         </is>
       </c>
       <c r="H197" t="n">
-        <v>9.690899999999999</v>
+        <v>9.558199999999999</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025/02/27</t>
+          <t>2025/03/03</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-0.4211</v>
+        <v>-1.9145</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>2025/02/21</t>
+          <t>2025/02/25</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>67.28</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2025/02/21</t>
+          <t>2025/02/25</t>
         </is>
       </c>
       <c r="H198" t="n">
-        <v>12.1102</v>
+        <v>11.4398</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025/02/26</t>
+          <t>2025/02/28</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-0.0607</v>
+        <v>-0.0241</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2025/02/20</t>
+          <t>2025/02/24</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>67.83</v>
+        <v>66.03</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>2025/02/20</t>
+          <t>2025/02/24</t>
         </is>
       </c>
       <c r="H199" t="n">
-        <v>10.3279</v>
+        <v>9.690899999999999</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025/02/25</t>
+          <t>2025/02/27</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1.2587</v>
+        <v>-0.4211</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2025/02/19</t>
+          <t>2025/02/21</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>74.27</v>
+        <v>67.28</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>2025/02/19</t>
+          <t>2025/02/21</t>
         </is>
       </c>
       <c r="H200" t="n">
-        <v>10.9616</v>
+        <v>12.1102</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025/02/24</t>
+          <t>2025/02/26</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-0.7076</v>
+        <v>-0.0607</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2025/02/18</t>
+          <t>2025/02/20</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>76.54000000000001</v>
+        <v>67.83</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>2025/02/18</t>
+          <t>2025/02/20</t>
         </is>
       </c>
       <c r="H201" t="n">
-        <v>10.686</v>
+        <v>10.3279</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025/02/21</t>
+          <t>2025/02/25</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1.5149</v>
+        <v>1.2587</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>2025/02/17</t>
+          <t>2025/02/19</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>79.95</v>
+        <v>74.27</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>2025/02/17</t>
+          <t>2025/02/19</t>
         </is>
       </c>
       <c r="H202" t="n">
-        <v>11.1233</v>
+        <v>10.9616</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025/02/20</t>
+          <t>2025/02/24</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-0.354</v>
+        <v>-0.7076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2025/02/14</t>
+          <t>2025/02/18</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>75.69</v>
+        <v>76.54000000000001</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>2025/02/14</t>
+          <t>2025/02/18</t>
         </is>
       </c>
       <c r="H203" t="n">
-        <v>11.8631</v>
+        <v>10.686</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025/02/19</t>
+          <t>2025/02/21</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-0.7345</v>
+        <v>1.5149</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>2025/02/13</t>
+          <t>2025/02/17</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>74.25</v>
+        <v>79.95</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>2025/02/13</t>
+          <t>2025/02/17</t>
         </is>
       </c>
       <c r="H204" t="n">
-        <v>11.0335</v>
+        <v>11.1233</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025/02/18</t>
+          <t>2025/02/20</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>-1.3676</v>
+        <v>-0.354</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>2025/02/12</t>
+          <t>2025/02/14</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>72.86</v>
+        <v>75.69</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>2025/02/12</t>
+          <t>2025/02/14</t>
         </is>
       </c>
       <c r="H205" t="n">
-        <v>12.7413</v>
+        <v>11.8631</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025/02/17</t>
+          <t>2025/02/19</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-1.4672</v>
+        <v>-0.7345</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>2025/02/11</t>
+          <t>2025/02/13</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>69.66</v>
+        <v>74.25</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>2025/02/11</t>
+          <t>2025/02/13</t>
         </is>
       </c>
       <c r="H206" t="n">
-        <v>10.937</v>
+        <v>11.0335</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025/02/14</t>
+          <t>2025/02/18</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-0.0565</v>
+        <v>-1.3676</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>2025/02/10</t>
+          <t>2025/02/12</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>69.33</v>
+        <v>72.86</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>2025/02/10</t>
+          <t>2025/02/12</t>
         </is>
       </c>
       <c r="H207" t="n">
-        <v>10.6276</v>
+        <v>12.7413</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025/02/13</t>
+          <t>2025/02/17</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>-0.6594</v>
+        <v>-1.4672</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2025/02/07</t>
+          <t>2025/02/11</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>69.45999999999999</v>
+        <v>69.66</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>2025/02/07</t>
+          <t>2025/02/11</t>
         </is>
       </c>
       <c r="H208" t="n">
-        <v>11.3069</v>
+        <v>10.937</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025/02/12</t>
+          <t>2025/02/14</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1.2672</v>
+        <v>-0.0565</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>2025/02/06</t>
+          <t>2025/02/10</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>73.15000000000001</v>
+        <v>69.33</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>2025/02/06</t>
+          <t>2025/02/10</t>
         </is>
       </c>
       <c r="H209" t="n">
-        <v>10.984</v>
+        <v>10.6276</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025/02/11</t>
+          <t>2025/02/13</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>-0.0331</v>
+        <v>-0.6594</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>2025/02/05</t>
+          <t>2025/02/07</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>76.73999999999999</v>
+        <v>69.45999999999999</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>2025/02/05</t>
+          <t>2025/02/07</t>
         </is>
       </c>
       <c r="H210" t="n">
-        <v>12.0026</v>
+        <v>11.3069</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025/02/10</t>
+          <t>2025/02/12</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>-0.2905</v>
+        <v>1.2672</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>2025/02/04</t>
+          <t>2025/02/06</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>85.52</v>
+        <v>73.15000000000001</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>2025/02/04</t>
+          <t>2025/02/06</t>
         </is>
       </c>
       <c r="H211" t="n">
-        <v>9.673999999999999</v>
+        <v>10.984</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025/02/07</t>
+          <t>2025/02/11</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.3683</v>
+        <v>-0.0331</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>2025/02/03</t>
+          <t>2025/02/05</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>86.28</v>
+        <v>76.73999999999999</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>2025/02/03</t>
+          <t>2025/02/05</t>
         </is>
       </c>
       <c r="H212" t="n">
-        <v>11.6337</v>
+        <v>12.0026</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025/02/06</t>
+          <t>2025/02/10</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>-0.5357</v>
+        <v>-0.2905</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>2025/01/31</t>
+          <t>2025/02/04</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>75.09</v>
+        <v>85.52</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>2025/01/31</t>
+          <t>2025/02/04</t>
         </is>
       </c>
       <c r="H213" t="n">
-        <v>10.6054</v>
+        <v>9.673999999999999</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025/02/05</t>
+          <t>2025/02/07</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>-0.0824</v>
+        <v>0.3683</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>2025/01/30</t>
+          <t>2025/02/03</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>77.78</v>
+        <v>86.28</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>2025/01/30</t>
+          <t>2025/02/03</t>
         </is>
       </c>
       <c r="H214" t="n">
-        <v>10.1426</v>
+        <v>11.6337</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025/02/04</t>
+          <t>2025/02/06</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>-3.7937</v>
+        <v>-0.5357</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>2025/01/29</t>
+          <t>2025/01/31</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>81.09999999999999</v>
+        <v>75.09</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>2025/01/29</t>
+          <t>2025/01/31</t>
         </is>
       </c>
       <c r="H215" t="n">
-        <v>11.2893</v>
+        <v>10.6054</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025/02/03</t>
+          <t>2025/02/05</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>-1.9537</v>
+        <v>-0.0824</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>2025/01/28</t>
+          <t>2025/01/30</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>85.33</v>
+        <v>77.78</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>2025/01/28</t>
+          <t>2025/01/30</t>
         </is>
       </c>
       <c r="H216" t="n">
-        <v>10.5698</v>
+        <v>10.1426</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025/01/31</t>
+          <t>2025/02/04</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>-1.2198</v>
+        <v>-3.7937</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>2025/01/27</t>
+          <t>2025/01/29</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>86.5</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>2025/01/27</t>
+          <t>2025/01/29</t>
         </is>
       </c>
       <c r="H217" t="n">
-        <v>11.2775</v>
+        <v>11.2893</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025/01/30</t>
+          <t>2025/02/03</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-2.1062</v>
+        <v>-1.9537</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>2025/01/24</t>
+          <t>2025/01/28</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>82.56999999999999</v>
+        <v>85.33</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>2025/01/24</t>
+          <t>2025/01/28</t>
         </is>
       </c>
       <c r="H218" t="n">
-        <v>10.3094</v>
+        <v>10.5698</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025/01/29</t>
+          <t>2025/01/31</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>-1.4824</v>
+        <v>-1.2198</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>2025/01/23</t>
+          <t>2025/01/27</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>85.84999999999999</v>
+        <v>86.5</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>2025/01/23</t>
+          <t>2025/01/27</t>
         </is>
       </c>
       <c r="H219" t="n">
-        <v>10.8423</v>
+        <v>11.2775</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025/01/28</t>
+          <t>2025/01/30</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>-2.868</v>
+        <v>-2.1062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>2025/01/22</t>
+          <t>2025/01/24</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>88.43000000000001</v>
+        <v>82.56999999999999</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>2025/01/22</t>
+          <t>2025/01/24</t>
         </is>
       </c>
       <c r="H220" t="n">
-        <v>10.0551</v>
+        <v>10.3094</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025/01/27</t>
+          <t>2025/01/29</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>-2.3446</v>
+        <v>-1.4824</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>2025/01/21</t>
+          <t>2025/01/23</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>90.55</v>
+        <v>85.84999999999999</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>2025/01/21</t>
+          <t>2025/01/23</t>
         </is>
       </c>
       <c r="H221" t="n">
-        <v>11.2328</v>
+        <v>10.8423</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2025/01/24</t>
+          <t>2025/01/28</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>-2.6937</v>
+        <v>-2.868</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>2025/01/20</t>
+          <t>2025/01/22</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>93.44</v>
+        <v>88.43000000000001</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>2025/01/20</t>
+          <t>2025/01/22</t>
         </is>
       </c>
       <c r="H222" t="n">
-        <v>10.8594</v>
+        <v>10.0551</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2025/01/23</t>
+          <t>2025/01/27</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-2.6774</v>
+        <v>-2.3446</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>2025/01/17</t>
+          <t>2025/01/21</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>95.91</v>
+        <v>90.55</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>2025/01/17</t>
+          <t>2025/01/21</t>
         </is>
       </c>
       <c r="H223" t="n">
-        <v>10.5234</v>
+        <v>11.2328</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2025/01/22</t>
+          <t>2025/01/24</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>-3.8709</v>
+        <v>-2.6937</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>2025/01/16</t>
+          <t>2025/01/20</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>98.63</v>
+        <v>93.44</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>2025/01/16</t>
+          <t>2025/01/20</t>
         </is>
       </c>
       <c r="H224" t="n">
-        <v>10.2817</v>
+        <v>10.8594</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2025/01/21</t>
+          <t>2025/01/23</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>-3.027</v>
+        <v>-2.6774</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>2025/01/15</t>
+          <t>2025/01/17</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>101.34</v>
+        <v>95.91</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>2025/01/15</t>
+          <t>2025/01/17</t>
         </is>
       </c>
       <c r="H225" t="n">
-        <v>7.496</v>
+        <v>10.5234</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2025/01/20</t>
+          <t>2025/01/22</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>-3.8555</v>
+        <v>-3.8709</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>2025/01/14</t>
+          <t>2025/01/16</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>98.98</v>
+        <v>98.63</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>2025/01/14</t>
+          <t>2025/01/16</t>
         </is>
       </c>
       <c r="H226" t="n">
-        <v>9.9194</v>
+        <v>10.2817</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2025/01/17</t>
+          <t>2025/01/21</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>-4.5806</v>
+        <v>-3.027</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>2025/01/13</t>
+          <t>2025/01/15</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>94.53</v>
+        <v>101.34</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>2025/01/13</t>
+          <t>2025/01/15</t>
         </is>
       </c>
       <c r="H227" t="n">
-        <v>9.5176</v>
+        <v>7.496</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2025/01/16</t>
+          <t>2025/01/20</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>-5.2506</v>
+        <v>-3.8555</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>2025/01/10</t>
+          <t>2025/01/14</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>103.26</v>
+        <v>98.98</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>2025/01/10</t>
+          <t>2025/01/14</t>
         </is>
       </c>
       <c r="H228" t="n">
-        <v>7.7754</v>
+        <v>9.9194</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2025/01/15</t>
+          <t>2025/01/17</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>-8.463100000000001</v>
+        <v>-4.5806</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>2025/01/09</t>
+          <t>2025/01/13</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>102.6</v>
+        <v>94.53</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>2025/01/09</t>
+          <t>2025/01/13</t>
         </is>
       </c>
       <c r="H229" t="n">
-        <v>9.3225</v>
+        <v>9.5176</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2025/01/14</t>
+          <t>2025/01/16</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>-5.668</v>
+        <v>-5.2506</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>2025/01/08</t>
+          <t>2025/01/10</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>106.46</v>
+        <v>103.26</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>2025/01/08</t>
+          <t>2025/01/10</t>
         </is>
       </c>
       <c r="H230" t="n">
-        <v>10.6494</v>
+        <v>7.7754</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2025/01/13</t>
+          <t>2025/01/15</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>-5.3691</v>
+        <v>-8.463100000000001</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>2025/01/07</t>
+          <t>2025/01/09</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>106.81</v>
+        <v>102.6</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>2025/01/07</t>
+          <t>2025/01/09</t>
         </is>
       </c>
       <c r="H231" t="n">
-        <v>8.405099999999999</v>
+        <v>9.3225</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2025/01/10</t>
+          <t>2025/01/14</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>-8.486000000000001</v>
+        <v>-5.668</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>2025/01/06</t>
+          <t>2025/01/08</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>103.34</v>
+        <v>106.46</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>2025/01/06</t>
+          <t>2025/01/08</t>
         </is>
       </c>
       <c r="H232" t="n">
-        <v>9.6496</v>
+        <v>10.6494</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2025/01/09</t>
+          <t>2025/01/13</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>-6.835</v>
+        <v>-5.3691</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>2025/01/03</t>
+          <t>2025/01/07</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>100.34</v>
+        <v>106.81</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>2025/01/03</t>
+          <t>2025/01/07</t>
         </is>
       </c>
       <c r="H233" t="n">
-        <v>9.190799999999999</v>
+        <v>8.405099999999999</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2025/01/08</t>
+          <t>2025/01/10</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>-6.1159</v>
+        <v>-8.486000000000001</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>2025/01/02</t>
+          <t>2025/01/06</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>98.53</v>
+        <v>103.34</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>2025/01/02</t>
+          <t>2025/01/06</t>
         </is>
       </c>
       <c r="H234" t="n">
-        <v>8.67</v>
+        <v>9.6496</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2025/01/07</t>
+          <t>2025/01/09</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>-8.4154</v>
+        <v>-6.835</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>2025/01/01</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>97.38</v>
+        <v>100.34</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>2025/01/01</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="H235" t="n">
-        <v>8.662100000000001</v>
+        <v>9.190799999999999</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2025/01/06</t>
+          <t>2025/01/08</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>-6.6244</v>
+        <v>-6.1159</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>93.68000000000001</v>
+        <v>98.53</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="H236" t="n">
-        <v>10.2923</v>
+        <v>8.67</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2025/01/03</t>
+          <t>2025/01/07</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>-6.6108</v>
+        <v>-8.4154</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>2024/12/30</t>
+          <t>2025/01/01</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>93.77</v>
+        <v>97.38</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>2024/12/30</t>
+          <t>2025/01/01</t>
         </is>
       </c>
       <c r="H237" t="n">
-        <v>9.8399</v>
+        <v>8.662100000000001</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2025/01/02</t>
+          <t>2025/01/06</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>-6.8465</v>
+        <v>-6.6244</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>94.41</v>
+        <v>93.68000000000001</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="H238" t="n">
-        <v>9.641</v>
+        <v>10.2923</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2025/01/01</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>-6.6733</v>
+        <v>-6.6108</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>2024/12/26</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>95.12</v>
+        <v>93.77</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>2024/12/26</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="H239" t="n">
-        <v>10.8597</v>
+        <v>9.8399</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>-4.4605</v>
+        <v>-6.8465</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>2024/12/25</t>
+          <t>2024/12/27</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>94.44</v>
+        <v>94.41</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>2024/12/25</t>
+          <t>2024/12/27</t>
         </is>
       </c>
       <c r="H240" t="n">
-        <v>10.6061</v>
+        <v>9.641</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2024/12/30</t>
+          <t>2025/01/01</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>-4.927</v>
+        <v>-6.6733</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>2024/12/24</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>93.5</v>
+        <v>95.12</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>2024/12/24</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="H241" t="n">
-        <v>10.0562</v>
+        <v>10.8597</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>-5.2267</v>
+        <v>-4.4605</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>2024/12/23</t>
+          <t>2024/12/25</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>93.18000000000001</v>
+        <v>94.44</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>2024/12/23</t>
+          <t>2024/12/25</t>
         </is>
       </c>
       <c r="H242" t="n">
-        <v>10.9558</v>
+        <v>10.6061</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2024/12/26</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>-4.1198</v>
+        <v>-4.927</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>2024/12/20</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>89.70999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>2024/12/20</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="H243" t="n">
-        <v>9.5435</v>
+        <v>10.0562</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2024/12/25</t>
+          <t>2024/12/27</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>-4.2663</v>
+        <v>-5.2267</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2024/12/23</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>91.28</v>
+        <v>93.18000000000001</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2024/12/23</t>
         </is>
       </c>
       <c r="H244" t="n">
-        <v>10.0129</v>
+        <v>10.9558</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2024/12/24</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>-4.6682</v>
+        <v>-4.1198</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>95.45999999999999</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="H245" t="n">
-        <v>10.3675</v>
+        <v>9.5435</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2024/12/23</t>
+          <t>2024/12/25</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>-3.7182</v>
+        <v>-4.2663</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>97.53</v>
+        <v>91.28</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="H246" t="n">
-        <v>10.3675</v>
+        <v>10.0129</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2024/12/20</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>-4.5841</v>
+        <v>-4.6682</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>92</v>
+        <v>95.45999999999999</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="H247" t="n">
-        <v>9.6837</v>
+        <v>10.3675</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2024/12/23</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>-4.3619</v>
+        <v>-3.7182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>95.55</v>
+        <v>97.53</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="H248" t="n">
-        <v>8.5305</v>
+        <v>10.3675</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>-4.6656</v>
+        <v>-4.5841</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>98.67</v>
+        <v>92</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="H249" t="n">
-        <v>9.914400000000001</v>
+        <v>9.6837</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>-4.9916</v>
+        <v>-4.3619</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>98.01000000000001</v>
+        <v>95.55</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="H250" t="n">
-        <v>8.073700000000001</v>
+        <v>8.5305</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>-4.8045</v>
+        <v>-4.6656</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>93.42</v>
+        <v>98.67</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="H251" t="n">
-        <v>8.4635</v>
+        <v>9.914400000000001</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>-6.5168</v>
+        <v>-4.9916</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="E252" t="n">
-        <v>98.98999999999999</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="H252" t="n">
-        <v>9.2096</v>
+        <v>8.073700000000001</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>-5.6242</v>
+        <v>-4.8045</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>105.01</v>
+        <v>93.42</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="H253" t="n">
-        <v>11.3682</v>
+        <v>8.4635</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>-7.3609</v>
+        <v>-6.5168</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>2024/12/05</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>106.52</v>
+        <v>98.98999999999999</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>2024/12/05</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="H254" t="n">
-        <v>10.8439</v>
+        <v>9.2096</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>-6.2483</v>
+        <v>-5.6242</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2024/12/06</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>104.79</v>
+        <v>105.01</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2024/12/06</t>
         </is>
       </c>
       <c r="H255" t="n">
-        <v>11.7231</v>
+        <v>11.3682</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>-6.3794</v>
+        <v>-7.3609</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/05</t>
         </is>
       </c>
       <c r="E256" t="n">
-        <v>99.34999999999999</v>
+        <v>106.52</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/05</t>
         </is>
       </c>
       <c r="H256" t="n">
-        <v>9.044600000000001</v>
+        <v>10.8439</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>-5.1688</v>
+        <v>-6.2483</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2024/12/04</t>
         </is>
       </c>
       <c r="E257" t="n">
-        <v>92.95</v>
+        <v>104.79</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2024/12/04</t>
         </is>
       </c>
       <c r="H257" t="n">
-        <v>10.7606</v>
+        <v>11.7231</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2024/12/05</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>-5.9309</v>
+        <v>-6.3794</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>2024/11/29</t>
+          <t>2024/12/03</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>87.15000000000001</v>
+        <v>99.34999999999999</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>2024/11/29</t>
+          <t>2024/12/03</t>
         </is>
       </c>
       <c r="H258" t="n">
-        <v>10.1813</v>
+        <v>9.044600000000001</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2024/12/06</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>-4.7793</v>
+        <v>-5.1688</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>2024/11/28</t>
+          <t>2024/12/02</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>88.04000000000001</v>
+        <v>92.95</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>2024/11/28</t>
+          <t>2024/12/02</t>
         </is>
       </c>
       <c r="H259" t="n">
-        <v>9.430199999999999</v>
+        <v>10.7606</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/05</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>-6.6011</v>
+        <v>-5.9309</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>2024/11/27</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="E260" t="n">
-        <v>93.78</v>
+        <v>87.15000000000001</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>2024/11/27</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="H260" t="n">
-        <v>10.5731</v>
+        <v>10.1813</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2024/12/04</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>-3.8772</v>
+        <v>-4.7793</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>2024/11/26</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>102.14</v>
+        <v>88.04000000000001</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>2024/11/26</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="H261" t="n">
-        <v>11.3617</v>
+        <v>9.430199999999999</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2024/11/29</t>
+          <t>2024/12/03</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>-3.5431</v>
+        <v>-6.6011</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>2024/11/25</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>109.38</v>
+        <v>93.78</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>2024/11/25</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="H262" t="n">
-        <v>12.6561</v>
+        <v>10.5731</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2024/11/28</t>
+          <t>2024/12/02</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>-4.4343</v>
+        <v>-3.8772</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>108.33</v>
+        <v>102.14</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="H263" t="n">
-        <v>10.8694</v>
+        <v>11.3617</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2024/11/27</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>-4.1954</v>
+        <v>-3.5431</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="E264" t="n">
-        <v>116.3</v>
+        <v>109.38</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="H264" t="n">
-        <v>11.0472</v>
+        <v>12.6561</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2024/11/26</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>-4.7234</v>
+        <v>-4.4343</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="E265" t="n">
-        <v>112.38</v>
+        <v>108.33</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="H265" t="n">
-        <v>12.1018</v>
+        <v>10.8694</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2024/11/25</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>-4.5691</v>
+        <v>-4.1954</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="E266" t="n">
-        <v>116.32</v>
+        <v>116.3</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="H266" t="n">
-        <v>11.5294</v>
+        <v>11.0472</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>-6.1905</v>
+        <v>-4.7234</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="E267" t="n">
-        <v>113.76</v>
+        <v>112.38</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="H267" t="n">
-        <v>9.7583</v>
+        <v>12.1018</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>-7.2678</v>
+        <v>-4.5691</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="E268" t="n">
-        <v>111.31</v>
+        <v>116.32</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="H268" t="n">
-        <v>12.3332</v>
+        <v>11.5294</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>-5.5958</v>
+        <v>-6.1905</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>105.91</v>
+        <v>113.76</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="H269" t="n">
-        <v>11.3628</v>
+        <v>9.7583</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>-6.7887</v>
+        <v>-7.2678</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="E270" t="n">
-        <v>110.09</v>
+        <v>111.31</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="H270" t="n">
-        <v>11.6334</v>
+        <v>12.3332</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>-8.156700000000001</v>
+        <v>-5.5958</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="E271" t="n">
-        <v>114.71</v>
+        <v>105.91</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="H271" t="n">
-        <v>12.3006</v>
+        <v>11.3628</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>-5.1959</v>
+        <v>-6.7887</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/13</t>
         </is>
       </c>
       <c r="E272" t="n">
-        <v>114.84</v>
+        <v>110.09</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/13</t>
         </is>
       </c>
       <c r="H272" t="n">
-        <v>13.7936</v>
+        <v>11.6334</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>-5.3159</v>
+        <v>-8.156700000000001</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="E273" t="n">
-        <v>120.85</v>
+        <v>114.71</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="H273" t="n">
-        <v>12.6402</v>
+        <v>12.3006</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>-5.7036</v>
+        <v>-5.1959</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="E274" t="n">
-        <v>127</v>
+        <v>114.84</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="H274" t="n">
-        <v>11.2361</v>
+        <v>13.7936</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>-5.764</v>
+        <v>-5.3159</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="E275" t="n">
-        <v>129</v>
+        <v>120.85</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="H275" t="n">
-        <v>11.7666</v>
+        <v>12.6402</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/13</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>-4.2914</v>
+        <v>-5.7036</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="E276" t="n">
-        <v>127.52</v>
+        <v>127</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="H276" t="n">
-        <v>11.5708</v>
+        <v>11.2361</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>-6.3913</v>
+        <v>-5.764</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>128.88</v>
+        <v>129</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="H277" t="n">
-        <v>11.0003</v>
+        <v>11.7666</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>-8.7639</v>
+        <v>-4.2914</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>2024/11/01</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>123.51</v>
+        <v>127.52</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>2024/11/01</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="H278" t="n">
-        <v>13.3803</v>
+        <v>11.5708</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>-8.548299999999999</v>
+        <v>-6.3913</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>2024/10/31</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="E279" t="n">
-        <v>117.44</v>
+        <v>128.88</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>2024/10/31</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="H279" t="n">
-        <v>13.2935</v>
+        <v>11.0003</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>-8.511100000000001</v>
+        <v>-8.7639</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/11/01</t>
         </is>
       </c>
       <c r="E280" t="n">
-        <v>113.83</v>
+        <v>123.51</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/11/01</t>
         </is>
       </c>
       <c r="H280" t="n">
-        <v>13.8862</v>
+        <v>13.3803</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>-9.2957</v>
+        <v>-8.548299999999999</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/10/31</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>104.12</v>
+        <v>117.44</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/10/31</t>
         </is>
       </c>
       <c r="H281" t="n">
-        <v>13.2328</v>
+        <v>13.2935</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2024/11/01</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>-6.0701</v>
+        <v>-8.511100000000001</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>2024/10/28</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="E282" t="n">
-        <v>107.04</v>
+        <v>113.83</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>2024/10/28</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="H282" t="n">
-        <v>13.9674</v>
+        <v>13.8862</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2024/10/31</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>-5.2009</v>
+        <v>-9.2957</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="E283" t="n">
-        <v>114.49</v>
+        <v>104.12</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="H283" t="n">
-        <v>11.9594</v>
+        <v>13.2328</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/11/01</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>-4.0398</v>
+        <v>-6.0701</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="E284" t="n">
-        <v>124</v>
+        <v>107.04</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="H284" t="n">
-        <v>16.4893</v>
+        <v>13.9674</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/10/31</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>-3.1641</v>
+        <v>-5.2009</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="E285" t="n">
-        <v>117</v>
+        <v>114.49</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="H285" t="n">
-        <v>14.229</v>
+        <v>11.9594</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2024/10/28</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>-2.8893</v>
+        <v>-4.0398</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="E286" t="n">
-        <v>121.18</v>
+        <v>124</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="H286" t="n">
-        <v>11.445</v>
+        <v>16.4893</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>-6.0705</v>
+        <v>-3.1641</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="E287" t="n">
-        <v>120.84</v>
+        <v>117</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="H287" t="n">
-        <v>12.1116</v>
+        <v>14.229</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>-3.0383</v>
+        <v>-2.8893</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="E288" t="n">
-        <v>122.59</v>
+        <v>121.18</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="H288" t="n">
-        <v>14.1022</v>
+        <v>11.445</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>-4.1962</v>
+        <v>-6.0705</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="E289" t="n">
-        <v>124.6</v>
+        <v>120.84</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="H289" t="n">
-        <v>12.3264</v>
+        <v>12.1116</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>-7.6384</v>
+        <v>-3.0383</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="E290" t="n">
-        <v>127.6</v>
+        <v>122.59</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="H290" t="n">
-        <v>12.7139</v>
+        <v>14.1022</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>-6.9183</v>
+        <v>-4.1962</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="E291" t="n">
-        <v>126.58</v>
+        <v>124.6</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="H291" t="n">
-        <v>12.5264</v>
+        <v>12.3264</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>-5.2033</v>
+        <v>-7.6384</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="E292" t="n">
-        <v>127.15</v>
+        <v>127.6</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="H292" t="n">
-        <v>12.5227</v>
+        <v>12.7139</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>-7.2957</v>
+        <v>-6.9183</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="E293" t="n">
-        <v>134.45</v>
+        <v>126.58</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="H293" t="n">
-        <v>12.3931</v>
+        <v>12.5264</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>-7.3806</v>
+        <v>-5.2033</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="E294" t="n">
-        <v>131.25</v>
+        <v>127.15</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="H294" t="n">
-        <v>10.1024</v>
+        <v>12.5227</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>-7.4075</v>
+        <v>-7.2957</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="E295" t="n">
-        <v>127.51</v>
+        <v>134.45</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="H295" t="n">
-        <v>12.3287</v>
+        <v>12.3931</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>-7.5009</v>
+        <v>-7.3806</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="E296" t="n">
-        <v>133.78</v>
+        <v>131.25</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="H296" t="n">
-        <v>13.335</v>
+        <v>10.1024</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>-8.780200000000001</v>
+        <v>-7.4075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="E297" t="n">
-        <v>134.33</v>
+        <v>127.51</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="H297" t="n">
-        <v>9.470000000000001</v>
+        <v>12.3287</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>-10.5669</v>
+        <v>-7.5009</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="E298" t="n">
-        <v>133.19</v>
+        <v>133.78</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="H298" t="n">
-        <v>11.7768</v>
+        <v>13.335</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>-7.7517</v>
+        <v>-8.780200000000001</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="E299" t="n">
-        <v>139.06</v>
+        <v>134.33</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="H299" t="n">
-        <v>8.611499999999999</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>-7.7328</v>
+        <v>-10.5669</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/10/04</t>
         </is>
       </c>
       <c r="E300" t="n">
-        <v>137.98</v>
+        <v>133.19</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/10/04</t>
         </is>
       </c>
       <c r="H300" t="n">
-        <v>12.9079</v>
+        <v>11.7768</v>
       </c>
     </row>
   </sheetData>
